--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure6.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure6.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
   </si>
   <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>change</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -79,13 +79,13 @@
     <t>number_outpatient</t>
   </si>
   <si>
+    <t>num_medications</t>
+  </si>
+  <si>
     <t>time_in_hospital</t>
   </si>
   <si>
     <t>number_diagnoses</t>
-  </si>
-  <si>
-    <t>num_medications</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.304405151008212</v>
+        <v>1.303318083444226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.29664342351952</v>
+        <v>1.297061111379053</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.257744371466159</v>
+        <v>1.269804355314311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.242059906917503</v>
+        <v>1.24052598188069</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.183975158466805</v>
+        <v>1.183382360664993</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1.172494494391616</v>
+        <v>1.170411471961306</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.164693352318434</v>
+        <v>1.169944470113854</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164158804493804</v>
+        <v>1.165727893400856</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1.163409714879635</v>
+        <v>1.164722668225887</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -685,7 +685,7 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>1.163147594303252</v>
+        <v>1.163767819643185</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1.154700538379251</v>
+        <v>1.161491940108951</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.147369032265788</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.144571390574773</v>
+        <v>1.140037079478887</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1.132696225541352</v>
+        <v>1.131945935163114</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.096488998046067</v>
+        <v>1.095769013864445</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.984899762543613</v>
+        <v>0.9805833624686381</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9844571317004333</v>
+        <v>0.9787672401353665</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9791259466833572</v>
+        <v>0.9773581256151708</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -869,10 +869,10 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9742765349065472</v>
+        <v>0.9691570107484088</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9727459232066701</v>
+        <v>0.9685841546058361</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.96649128743225</v>
+        <v>0.96690194667819</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9659319137624843</v>
+        <v>0.9658263251775908</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9653713277183786</v>
+        <v>0.9657451134118863</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9652829870024142</v>
+        <v>0.9657054123621241</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.964883665147612</v>
+        <v>0.9654120115094068</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9638206426336343</v>
+        <v>0.961702042527789</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9625424593058896</v>
+        <v>0.9597232587722949</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9333568481729606</v>
+        <v>0.9355502050812131</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.8021086942540392</v>
+        <v>0.7279522854655585</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7177537685848803</v>
+        <v>0.7189730616321612</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7148116611777616</v>
+        <v>0.6793662204867574</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6940345670909434</v>
+        <v>0.6778286048722459</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6873358389867035</v>
+        <v>0.6728281420951935</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.6752424608630451</v>
+        <v>0.6044385510473863</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.6037914697216047</v>
+        <v>0.5635773136718069</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5869022612420183</v>
+        <v>0.5547001962252291</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5814691205097121</v>
+        <v>0.5367826312580717</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5764283337627056</v>
+        <v>0.5274560679273101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1206,13 +1206,13 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5635773136718069</v>
+        <v>0.5258109413490398</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.5547001962252291</v>
+        <v>0.5188942896339682</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5360407206647829</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1257,13 +1257,13 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5245568992726264</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4920824918292634</v>
+        <v>0.4672643609798048</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4880711008692505</v>
+        <v>0.4616103466664636</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>0.4712414332508487</v>
+        <v>0.46023947472609</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4616103466664636</v>
+        <v>0.4480620839084176</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4610112019472001</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -1365,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4480620839084176</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4472397869732981</v>
+        <v>0.4056870244621892</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>0.4309066795526431</v>
+        <v>0.4044654362268886</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4212603915161233</v>
+        <v>0.3942670038352569</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4198677228937275</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,7 +1441,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4190581774617468</v>
+        <v>0.3825427632223676</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E59">
-        <v>0.3917247450213849</v>
+        <v>0.3815186554040121</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E60">
-        <v>0.3854152581460826</v>
+        <v>0.3759456197878844</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>0.3836170708859487</v>
+        <v>0.3667130913277372</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0.3825427632223676</v>
+        <v>0.3661232389533357</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
@@ -1535,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="E63">
-        <v>0.3789175466098735</v>
+        <v>0.3653927431271614</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1546,13 +1546,13 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3759047057780561</v>
+        <v>0.3630995400249084</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,7 +1560,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -1569,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3631058272528684</v>
+        <v>0.3544587784792833</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3609496807151077</v>
+        <v>0.3498285100979472</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3604650978752412</v>
+        <v>0.3492704931271524</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3544781428568476</v>
+        <v>0.348043781694215</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E69">
-        <v>0.3514521909306784</v>
+        <v>0.3468778689350084</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.3507337381641581</v>
+        <v>0.3298593719839033</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3498285100979472</v>
+        <v>0.31437182615207</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3439842278379731</v>
+        <v>0.3107751543820654</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3392634668650793</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3303824183773727</v>
+        <v>0.3083340791113228</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3231719311019939</v>
+        <v>0.3065962114220912</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3213933154265872</v>
+        <v>0.3058188677242056</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3162361369996654</v>
+        <v>0.3033257470080554</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3149043135103178</v>
+        <v>0.2992025630554002</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3107751543820654</v>
+        <v>0.2990604650052476</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>0.3107277331329326</v>
+        <v>0.2988515429943691</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3091965284934237</v>
+        <v>0.2954912183287603</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3076153849709836</v>
+        <v>0.2954644988369885</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
         <v>26</v>
       </c>
       <c r="E83">
-        <v>0.3067799340659826</v>
+        <v>0.2953996306254416</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.3058639649443881</v>
+        <v>0.292389959334443</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3039194591890708</v>
+        <v>0.2910108487160663</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.3006166501881929</v>
+        <v>0.2901551851854315</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.2980708031217626</v>
+        <v>0.2866236420526733</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2965275939451521</v>
+        <v>0.285575955831937</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.2916486689712442</v>
+        <v>0.2815486197770488</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
       </c>
       <c r="E90">
-        <v>0.2845872032707493</v>
+        <v>0.2804905492885021</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E91">
-        <v>0.2835187109385795</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2826507960499975</v>
+        <v>0.2715603884055748</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.2816116510741098</v>
+        <v>0.2695358466875467</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2809472830143662</v>
+        <v>0.2680653248068706</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2804123889340429</v>
+        <v>0.2655690593875638</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2720363855560753</v>
+        <v>0.2654069664482833</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E97">
-        <v>0.2637963061419902</v>
+        <v>0.2606393894491953</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>0.2624871835558842</v>
+        <v>0.2591661530798813</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.2615080884543349</v>
+        <v>0.2583424532221111</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2607817978539816</v>
+        <v>0.2560633613076792</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E101">
-        <v>0.2580817677724688</v>
+        <v>0.2560242411300394</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E102">
-        <v>0.257714707187319</v>
+        <v>0.2553769592276245</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2577029586118867</v>
+        <v>0.2547836103364806</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>0.2556844432268167</v>
+        <v>0.2537576872524138</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.253060089439238</v>
+        <v>0.2526391074882246</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2526377037248494</v>
+        <v>0.252422828595133</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2524627036021136</v>
+        <v>0.2522165617267695</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E108">
-        <v>0.25180718458505</v>
+        <v>0.2514274410859172</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2516131985548776</v>
+        <v>0.2512279986959803</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E110">
-        <v>0.2472180520311028</v>
+        <v>0.2509180117968884</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2468318585873307</v>
+        <v>0.248086544525566</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2465824683055701</v>
+        <v>0.2477643289520159</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113">
-        <v>0.2405947408107502</v>
+        <v>0.241522945769824</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,7 +2393,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
@@ -2402,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="E114">
-        <v>0.2397175600487496</v>
+        <v>0.2362385815310301</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,7 +2410,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
@@ -2419,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="E115">
-        <v>0.2382549277661622</v>
+        <v>0.234815524884905</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116">
-        <v>0.2380171657362805</v>
+        <v>0.2325970365315266</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E117">
-        <v>0.2355579675993814</v>
+        <v>0.2312252692264029</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E118">
-        <v>0.2339318383761493</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E119">
-        <v>0.2332800222569079</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2324740017443106</v>
+        <v>0.2310117862316724</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2311888316118858</v>
+        <v>0.2309073641884219</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2311888316118858</v>
+        <v>0.229042474102727</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2310705330839937</v>
+        <v>0.2286886968586346</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E124">
-        <v>0.230279320878494</v>
+        <v>0.2286124573886649</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2297541188493596</v>
+        <v>0.2281818310253871</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>0.2297418179686343</v>
+        <v>0.2281774068802755</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>0.2289729124581405</v>
+        <v>0.2279574130850092</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0.2288807563799097</v>
+        <v>0.2277267839381025</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2277734063920909</v>
+        <v>0.2262955305214559</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E130">
-        <v>0.2275796875785252</v>
+        <v>0.2260185542927216</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
         <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2263821770403505</v>
+        <v>0.2256283729589373</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E132">
-        <v>0.2259757594712273</v>
+        <v>0.225608358330018</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E133">
-        <v>0.2256621444582738</v>
+        <v>0.2255107450586763</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2736,13 +2736,13 @@
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2249924729860358</v>
+        <v>0.2254398899167528</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2236067977499791</v>
+        <v>0.2254002094947413</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
       </c>
       <c r="E136">
-        <v>0.2228586246129337</v>
+        <v>0.2253751215610487</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E137">
-        <v>0.2217516925642914</v>
+        <v>0.2250010219909747</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2215995624083328</v>
+        <v>0.2249880927366933</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2821,13 +2821,13 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E139">
-        <v>0.2212255378705967</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2211323545556238</v>
+        <v>0.222915556149733</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2210125514592514</v>
+        <v>0.2227083192762558</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2202498927682238</v>
+        <v>0.2206051089794912</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2196304481976148</v>
+        <v>0.2195590417139912</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2193217468293251</v>
+        <v>0.2190339435184567</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2193045042926265</v>
+        <v>0.2187789855013473</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2940,13 +2940,13 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E146">
-        <v>0.219101108987449</v>
+        <v>0.217818663876457</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
         <v>28</v>
       </c>
       <c r="E147">
-        <v>0.2190555685651866</v>
+        <v>0.2170633778703501</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2189585811834646</v>
+        <v>0.215761799804466</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,7 +2988,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
@@ -2997,7 +2997,7 @@
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2156076968790604</v>
+        <v>0.2152148517258059</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E150">
-        <v>0.2155226665424897</v>
+        <v>0.2133648100278805</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2128449533215899</v>
+        <v>0.2118617318743455</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.2125836225611316</v>
+        <v>0.2116782754741079</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E153">
-        <v>0.2111086697426141</v>
+        <v>0.2115645995624136</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2107664936173025</v>
+        <v>0.2114023330779336</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
         <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>0.2103068025112241</v>
+        <v>0.2113445716906859</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2084697774402487</v>
+        <v>0.2101532426017601</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2067833361719433</v>
+        <v>0.210120499559061</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
       </c>
       <c r="E158">
-        <v>0.2063694944829171</v>
+        <v>0.2098800089913808</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3164,10 +3164,10 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.2054883519768457</v>
+        <v>0.2091829937210311</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
         <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E160">
-        <v>0.2044201897939718</v>
+        <v>0.2089122386032596</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2036692624526471</v>
+        <v>0.2084477672564562</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.2034744984923868</v>
+        <v>0.2071382157483368</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.2023249814597783</v>
+        <v>0.2071198563085199</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.2013985534183912</v>
+        <v>0.206841906094224</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
       </c>
       <c r="E165">
-        <v>0.2010401907145356</v>
+        <v>0.206627064920822</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
       </c>
       <c r="E166">
-        <v>0.1996790455727383</v>
+        <v>0.2065429662819859</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3297,13 +3297,13 @@
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
         <v>26</v>
       </c>
       <c r="E167">
-        <v>0.1989603036073876</v>
+        <v>0.2064588701696893</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1962703449862419</v>
+        <v>0.2047929606719819</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E169">
-        <v>0.196149817600457</v>
+        <v>0.2033977818805704</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
         <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.1943899218967483</v>
+        <v>0.2029830402859508</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E171">
-        <v>0.1916805490025576</v>
+        <v>0.2025188342376538</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E172">
-        <v>0.1912298267268311</v>
+        <v>0.2024722747228422</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1909549661477846</v>
+        <v>0.2012635816457338</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.1906372896372104</v>
+        <v>0.2003124063290443</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
         <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E175">
-        <v>0.188685369360327</v>
+        <v>0.1998728746786024</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>0.1884787527229238</v>
+        <v>0.1994162390206567</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.188101358872398</v>
+        <v>0.1989797221551484</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3484,13 +3484,13 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E178">
-        <v>0.1870033274382745</v>
+        <v>0.1980688488983197</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1852674273957218</v>
+        <v>0.1964141939583395</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E180">
-        <v>0.1851959870200585</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E181">
-        <v>0.1836846128038079</v>
+        <v>0.1943067527282395</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1830104449656008</v>
+        <v>0.1936381477283347</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E183">
-        <v>0.1830104449656008</v>
+        <v>0.1928930476733539</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
         <v>26</v>
       </c>
       <c r="E184">
-        <v>0.1804079860661937</v>
+        <v>0.1909273226771179</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1791710787232632</v>
+        <v>0.1906226472973093</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1786139346856238</v>
+        <v>0.188063867300712</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1784327570380739</v>
+        <v>0.1859548109262901</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.1782685374879923</v>
+        <v>0.1858317413395454</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E189">
-        <v>0.1778404704076685</v>
+        <v>0.1855348462149935</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
         <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1767241083055608</v>
+        <v>0.1852324406960776</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3705,13 +3705,13 @@
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1755539877566184</v>
+        <v>0.181803423358004</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D192" t="s">
         <v>26</v>
       </c>
       <c r="E192">
-        <v>0.1751228347778346</v>
+        <v>0.1816508600187775</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1745315486580585</v>
+        <v>0.1805995650243067</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1729427564503565</v>
+        <v>0.1789536060128328</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,7 +3770,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C195" t="s">
         <v>18</v>
@@ -3779,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="E195">
-        <v>0.1720954010661876</v>
+        <v>0.1785211736079804</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1720551083113477</v>
+        <v>0.1780352932340618</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,7 +3804,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
         <v>20</v>
@@ -3813,7 +3813,7 @@
         <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1713665629241679</v>
+        <v>0.1777584636847434</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3824,13 +3824,13 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.1713558871117548</v>
+        <v>0.1772700808288688</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
         <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.1710395517485344</v>
+        <v>0.1730884239997259</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1709533979703378</v>
+        <v>0.1730151377725599</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1668671811021109</v>
+        <v>0.1729294875608873</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1662828393459892</v>
+        <v>0.1728463807567793</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,7 +3906,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>25</v>
@@ -3915,7 +3915,7 @@
         <v>26</v>
       </c>
       <c r="E203">
-        <v>0.1651992276107684</v>
+        <v>0.1710493253102843</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
         <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1644261770853751</v>
+        <v>0.169495845657882</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1638004128623301</v>
+        <v>0.1693134524149292</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E206">
-        <v>0.1636087423203766</v>
+        <v>0.1682366391491846</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D207" t="s">
         <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1618784039873595</v>
+        <v>0.1670420822662654</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1617091640771596</v>
+        <v>0.1670140627522595</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E209">
-        <v>0.1614937226217836</v>
+        <v>0.1651445647689539</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1590681762060629</v>
+        <v>0.1648483195018627</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E211">
-        <v>0.1582822450039159</v>
+        <v>0.1640225517997321</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>19</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1582139190440567</v>
+        <v>0.163798429929675</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E213">
-        <v>0.1567819091210683</v>
+        <v>0.1628655854961142</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
         <v>26</v>
       </c>
       <c r="E214">
-        <v>0.1554518834456934</v>
+        <v>0.1612504331848455</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1516296957912024</v>
+        <v>0.1608338125097864</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E216">
-        <v>0.1502063806415228</v>
+        <v>0.1605738836966819</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,7 +4144,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
@@ -4153,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1493840751755259</v>
+        <v>0.1599864281353736</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4164,13 +4164,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E218">
-        <v>0.1490253851499625</v>
+        <v>0.1589268132152751</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D219" t="s">
         <v>26</v>
       </c>
       <c r="E219">
-        <v>0.1483506530068529</v>
+        <v>0.1571280293631409</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1454894740085197</v>
+        <v>0.1563431236536863</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1443790330388018</v>
+        <v>0.1556202647124303</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1438459371803264</v>
+        <v>0.1543451598053285</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E223">
-        <v>0.1438265189968443</v>
+        <v>0.1541894982567285</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
         <v>28</v>
       </c>
       <c r="E224">
-        <v>0.1436626589370151</v>
+        <v>0.1533804197914364</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1434299145696023</v>
+        <v>0.1525924627071669</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1432244740709151</v>
+        <v>0.1524804648389299</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E227">
-        <v>0.1430523434289568</v>
+        <v>0.1515506650267655</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1430311656280418</v>
+        <v>0.1500923190392733</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>0.1429783958690947</v>
+        <v>0.1494610055335924</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
         <v>26</v>
       </c>
       <c r="E230">
-        <v>0.1428594590569973</v>
+        <v>0.149431919803783</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1428338869528963</v>
+        <v>0.1489032289527703</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
         <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1426317679440061</v>
+        <v>0.1467984010285699</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.141872900250088</v>
+        <v>0.1466303257999478</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E234">
-        <v>0.1414577639676958</v>
+        <v>0.1453787972326564</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E235">
-        <v>0.1413040831215221</v>
+        <v>0.1449999529715778</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1411207720938758</v>
+        <v>0.144305663711028</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1409025168335722</v>
+        <v>0.1441798661158056</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D238" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1408085585239143</v>
+        <v>0.1440009456262895</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,7 +4518,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
         <v>25</v>
@@ -4527,7 +4527,7 @@
         <v>29</v>
       </c>
       <c r="E239">
-        <v>0.140510349280082</v>
+        <v>0.1435946806849328</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
         <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1400801594207784</v>
+        <v>0.1430685684933534</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
         <v>22</v>
@@ -4561,7 +4561,7 @@
         <v>28</v>
       </c>
       <c r="E241">
-        <v>0.1399058019711278</v>
+        <v>0.1425657546111233</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1395673970805261</v>
+        <v>0.1417238379611763</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1395239538631168</v>
+        <v>0.1416858074266337</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
         <v>25</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E244">
-        <v>0.1394522578172535</v>
+        <v>0.1416333507672678</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1389247920714307</v>
+        <v>0.1412767166124163</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246">
-        <v>0.1374838745169618</v>
+        <v>0.1410236778895435</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C247" t="s">
         <v>23</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1374609950664645</v>
+        <v>0.1405549382675762</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1367449890902455</v>
+        <v>0.1404961346085796</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D249" t="s">
         <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1358467062952914</v>
+        <v>0.1403765882427947</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E250">
-        <v>0.1357537506832049</v>
+        <v>0.1392552819212867</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E251">
-        <v>0.1354490359311989</v>
+        <v>0.1392552819212867</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E252">
-        <v>0.1352337502058552</v>
+        <v>0.1392552819212867</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1349322380626981</v>
+        <v>0.1392395274901529</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,7 +4773,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C254" t="s">
         <v>19</v>
@@ -4782,7 +4782,7 @@
         <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1346945701555607</v>
+        <v>0.1389679138432548</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1345642051456337</v>
+        <v>0.1387616680409055</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1342706190888363</v>
+        <v>0.1367027708084341</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E257">
-        <v>0.1329745231198209</v>
+        <v>0.136545414886494</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1321740660072858</v>
+        <v>0.1361448728421205</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1321218051507855</v>
+        <v>0.1353664805429564</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1320625600225376</v>
+        <v>0.1350772687223148</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1314974772692863</v>
+        <v>0.1338618245002227</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
         <v>26</v>
       </c>
       <c r="E262">
-        <v>0.130994663440365</v>
+        <v>0.133843999408135</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1305713445628688</v>
+        <v>0.1335537957861879</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1303037956052191</v>
+        <v>0.1331689137455788</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D265" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E265">
-        <v>0.1293210725112877</v>
+        <v>0.1329112231414284</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,7 +4977,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
@@ -4986,7 +4986,7 @@
         <v>29</v>
       </c>
       <c r="E266">
-        <v>0.128656974160089</v>
+        <v>0.1328895764065294</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1286565884510213</v>
+        <v>0.132877165528474</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5014,13 +5014,13 @@
         <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E268">
-        <v>0.1281056067716505</v>
+        <v>0.1326119574359568</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
         <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1277092936478595</v>
+        <v>0.1311248957900698</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
       </c>
       <c r="E270">
-        <v>0.126863144984897</v>
+        <v>0.1310218696103031</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1267209764358167</v>
+        <v>0.1307212728593281</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1237210214183913</v>
+        <v>0.130376397703166</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1228611366385857</v>
+        <v>0.1302309581914129</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1227376656920713</v>
+        <v>0.1302292207584034</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E275">
-        <v>0.1224921058540948</v>
+        <v>0.1299173010680846</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,7 +5147,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
         <v>23</v>
@@ -5156,7 +5156,7 @@
         <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1224601013017488</v>
+        <v>0.1294562909533113</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1218378761945537</v>
+        <v>0.1293298579312817</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C278" t="s">
         <v>21</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1207012426561785</v>
+        <v>0.127978602744803</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1206453505528634</v>
+        <v>0.1269550798615539</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.1205648087834985</v>
+        <v>0.1268893589442081</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1202094156829918</v>
+        <v>0.1268885523464928</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D282" t="s">
         <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1200566318657074</v>
+        <v>0.1263506953448996</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1194206034214459</v>
+        <v>0.1250786188620941</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5286,13 +5286,13 @@
         <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>0.1186590611775211</v>
+        <v>0.1247603594661002</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5303,13 +5303,13 @@
         <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E285">
-        <v>0.1168685334965207</v>
+        <v>0.1245358756962701</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5323,10 +5323,10 @@
         <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E286">
-        <v>0.1167860315197368</v>
+        <v>0.1245335544920565</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C287" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E287">
-        <v>0.1165745164686335</v>
+        <v>0.1237776675054305</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1165649682063674</v>
+        <v>0.1222416818606567</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1163215549219248</v>
+        <v>0.1220140659365682</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
         <v>24</v>
       </c>
       <c r="D290" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1145859212523064</v>
+        <v>0.1215891629032115</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,7 +5402,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C291" t="s">
         <v>23</v>
@@ -5411,7 +5411,7 @@
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.114118270592337</v>
+        <v>0.1215658818949542</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1137616755442481</v>
+        <v>0.1205733137010817</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1135012725751406</v>
+        <v>0.1197852631368898</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D294" t="s">
         <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1125698097069821</v>
+        <v>0.1197167220177486</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1125012318072298</v>
+        <v>0.118836438285308</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D296" t="s">
         <v>28</v>
       </c>
       <c r="E296">
-        <v>0.1119327015917011</v>
+        <v>0.1183851501439362</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1118329377079214</v>
+        <v>0.1182590867624343</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.1117475390669186</v>
+        <v>0.1176088311330162</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D299" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1117208653765674</v>
+        <v>0.1161261232037324</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
         <v>27</v>
       </c>
       <c r="E300">
-        <v>0.1115008180796557</v>
+        <v>0.1160452587402248</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D301" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1115008180796557</v>
+        <v>0.1149366337664241</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E302">
-        <v>0.1109669129413842</v>
+        <v>0.1144065055029671</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1108207414158752</v>
+        <v>0.1140052364753976</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5626,13 +5626,13 @@
         <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D304" t="s">
         <v>29</v>
       </c>
       <c r="E304">
-        <v>0.1106593041621575</v>
+        <v>0.1138514041420363</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
         <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E305">
-        <v>0.109872621595623</v>
+        <v>0.1133481287561099</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1097686737623118</v>
+        <v>0.1128388204231573</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5677,13 +5677,13 @@
         <v>13</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E307">
-        <v>0.1094322014563331</v>
+        <v>0.1126904160143192</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1093095876783608</v>
+        <v>0.1124144892172258</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5711,13 +5711,13 @@
         <v>13</v>
       </c>
       <c r="C309" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D309" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1090799231524573</v>
+        <v>0.1107356931518443</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E310">
-        <v>0.1079890326784051</v>
+        <v>0.1104741967012836</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C311" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1078785640132663</v>
+        <v>0.1104319292145875</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
         <v>23</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E312">
-        <v>0.1072760898565129</v>
+        <v>0.110148961597738</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5779,13 +5779,13 @@
         <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D313" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.107243837560902</v>
+        <v>0.1094984353346211</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5796,13 +5796,13 @@
         <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1071385497610603</v>
+        <v>0.1089890356935526</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C315" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D315" t="s">
         <v>28</v>
       </c>
       <c r="E315">
-        <v>0.107081675010091</v>
+        <v>0.1089004277688485</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E316">
-        <v>0.1069355382620129</v>
+        <v>0.1081546850507082</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
         <v>26</v>
       </c>
       <c r="E317">
-        <v>0.106744098366307</v>
+        <v>0.1072728727699461</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E318">
-        <v>0.1053623527696789</v>
+        <v>0.1068710282826081</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.104795048946393</v>
+        <v>0.1068634083859368</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
       </c>
       <c r="E320">
-        <v>0.1045382912050248</v>
+        <v>0.1065346436719029</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>0.1042878182351538</v>
+        <v>0.1062277337854073</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,7 +5929,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C322" t="s">
         <v>24</v>
@@ -5938,7 +5938,7 @@
         <v>26</v>
       </c>
       <c r="E322">
-        <v>0.103872884527787</v>
+        <v>0.1040028299188</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>0.1033928112266515</v>
+        <v>0.1019970712045449</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D324" t="s">
         <v>26</v>
       </c>
       <c r="E324">
-        <v>0.1025738059272189</v>
+        <v>0.1018103268076908</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C325" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E325">
-        <v>0.1021905332764323</v>
+        <v>0.1011561077717749</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6000,13 +6000,13 @@
         <v>6</v>
       </c>
       <c r="C326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
         <v>28</v>
       </c>
       <c r="E326">
-        <v>0.1017006028055504</v>
+        <v>0.100665995960199</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E327">
-        <v>0.1014299169223447</v>
+        <v>0.1001473693674226</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C328" t="s">
         <v>24</v>
       </c>
       <c r="D328" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E328">
-        <v>0.1008973523726005</v>
+        <v>0.1000530570932958</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
         <v>26</v>
       </c>
       <c r="E329">
-        <v>0.1000406291038251</v>
+        <v>0.09949816783354841</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.09874538788538233</v>
+        <v>0.09876899034386807</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C331" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D331" t="s">
         <v>28</v>
       </c>
       <c r="E331">
-        <v>0.09838949540313406</v>
+        <v>0.09863442480428977</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.09786607206717436</v>
+        <v>0.09770121732120401</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C333" t="s">
         <v>24</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E333">
-        <v>0.09772425680069377</v>
+        <v>0.09752088270713806</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C334" t="s">
         <v>24</v>
       </c>
       <c r="D334" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E334">
-        <v>0.09740718093105095</v>
+        <v>0.09734241529604147</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6153,13 +6153,13 @@
         <v>7</v>
       </c>
       <c r="C335" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D335" t="s">
         <v>28</v>
       </c>
       <c r="E335">
-        <v>0.09720653053287522</v>
+        <v>0.09684001162300031</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E336">
-        <v>0.09680634447783373</v>
+        <v>0.09631026668778025</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E337">
-        <v>0.09673937497677024</v>
+        <v>0.09625115975445817</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D338" t="s">
         <v>28</v>
       </c>
       <c r="E338">
-        <v>0.09483768801443085</v>
+        <v>0.09563591783026651</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.0940784640640478</v>
+        <v>0.09523490507095783</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09400529551196934</v>
+        <v>0.09372900255225568</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E341">
-        <v>0.09382193984328953</v>
+        <v>0.09237139148072884</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D342" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.09222891579402898</v>
+        <v>0.09118464026131204</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D343" t="s">
         <v>26</v>
       </c>
       <c r="E343">
-        <v>0.09192335957336885</v>
+        <v>0.09067795296133188</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C344" t="s">
         <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E344">
-        <v>0.09150260677751013</v>
+        <v>0.09066960034814207</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E345">
-        <v>0.08928518145675678</v>
+        <v>0.09066875630469672</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D346" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E346">
-        <v>0.08623728825832357</v>
+        <v>0.09025810478227596</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E347">
-        <v>0.0829989364202532</v>
+        <v>0.08942612252710133</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C348" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D348" t="s">
         <v>26</v>
       </c>
       <c r="E348">
-        <v>0.08253343282831661</v>
+        <v>0.0886852744692265</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
         <v>26</v>
       </c>
       <c r="E349">
-        <v>0.08164476118646305</v>
+        <v>0.08795618568726345</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E350">
-        <v>0.08072998428941787</v>
+        <v>0.08767005142966643</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E351">
-        <v>0.07933074348237663</v>
+        <v>0.08708518202078809</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,7 +6439,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C352" t="s">
         <v>22</v>
@@ -6448,7 +6448,7 @@
         <v>28</v>
       </c>
       <c r="E352">
-        <v>0.07901903483940464</v>
+        <v>0.08577236317093037</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.0778469550422681</v>
+        <v>0.08459799255615198</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E354">
-        <v>0.07727511640380277</v>
+        <v>0.08424809024964935</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C355" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E355">
-        <v>0.07679617117097176</v>
+        <v>0.08416370615129821</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
         <v>26</v>
       </c>
       <c r="E356">
-        <v>0.07599289577550121</v>
+        <v>0.08223075405348318</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C357" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D357" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.07589447026073709</v>
+        <v>0.08057862775701542</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C358" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E358">
-        <v>0.07586360794370878</v>
+        <v>0.07780056390156573</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E359">
-        <v>0.07455319375864643</v>
+        <v>0.07769076968237153</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6581,10 +6581,10 @@
         <v>23</v>
       </c>
       <c r="D360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07391339048608245</v>
+        <v>0.07718179975532889</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
         <v>29</v>
       </c>
       <c r="E361">
-        <v>0.07351377309881248</v>
+        <v>0.07669124155354129</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D362" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.07284962376294951</v>
+        <v>0.07627160737706272</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,7 +6626,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C363" t="s">
         <v>25</v>
@@ -6635,7 +6635,7 @@
         <v>29</v>
       </c>
       <c r="E363">
-        <v>0.07238522229969634</v>
+        <v>0.07414051268224474</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C364" t="s">
         <v>22</v>
@@ -6652,7 +6652,7 @@
         <v>26</v>
       </c>
       <c r="E364">
-        <v>0.07007694005904871</v>
+        <v>0.07356897258378625</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
         <v>19</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E365">
-        <v>0.0693602741452892</v>
+        <v>0.07312062566524867</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E366">
-        <v>0.0672599182216926</v>
+        <v>0.07263696511989778</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C367" t="s">
         <v>23</v>
       </c>
       <c r="D367" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E367">
-        <v>0.06701393444621893</v>
+        <v>0.0720605920684885</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6720,7 +6720,7 @@
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06640279108718572</v>
+        <v>0.07133733942099266</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D369" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06629992395998539</v>
+        <v>0.07049673141541171</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C370" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D370" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E370">
-        <v>0.0642557518747033</v>
+        <v>0.07023474530053044</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,7 +6762,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C371" t="s">
         <v>21</v>
@@ -6771,7 +6771,7 @@
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.06013939775848144</v>
+        <v>0.06965743599523819</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,7 +6779,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C372" t="s">
         <v>22</v>
@@ -6788,7 +6788,7 @@
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.05969501745050627</v>
+        <v>0.06841898724946013</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D373" t="s">
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.05840013421129155</v>
+        <v>0.06450331400673136</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C374" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E374">
-        <v>0.05371338727265045</v>
+        <v>0.06120366458737301</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.05358895450966428</v>
+        <v>0.0588445286535014</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6850,13 +6850,13 @@
         <v>15</v>
       </c>
       <c r="C376" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D376" t="s">
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.03558189076474069</v>
+        <v>0.05759598507145375</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,7 +6864,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C377" t="s">
         <v>24</v>
@@ -6873,7 +6873,7 @@
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.03292051861621815</v>
+        <v>0.05432587348397249</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C378" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.02813617374462399</v>
+        <v>0.05240067393521203</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E379">
-        <v>0.01878500057128224</v>
+        <v>0.04806610314012198</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.01658212305155508</v>
+        <v>0.04691487273834365</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.01587855827058511</v>
+        <v>0.04669430529558287</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.00690900642031443</v>
+        <v>0.03413563732831873</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>0.02917843981608185</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D384" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>0.02551869288985126</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D385" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>0.02140542771997629</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D386" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>0.01408855567499447</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7054,7 +7054,7 @@
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C389" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C391" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C392" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C395" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C396" t="s">
         <v>25</v>
@@ -7207,7 +7207,7 @@
         <v>15</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,7 +7238,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C399" t="s">
         <v>25</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C401" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C402" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,7 +7306,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C403" t="s">
         <v>25</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C404" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,7 +7374,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
@@ -7394,7 +7394,7 @@
         <v>17</v>
       </c>
       <c r="C408" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C410" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7459,7 +7459,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C412" t="s">
         <v>22</v>
@@ -7476,7 +7476,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C413" t="s">
         <v>25</v>
@@ -7493,7 +7493,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C414" t="s">
         <v>22</v>
@@ -7510,7 +7510,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C415" t="s">
         <v>22</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C416" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
